--- a/Assets/06.Table/MarbleEvent.xlsx
+++ b/Assets/06.Table/MarbleEvent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6910407A-4BF3-4683-9DEA-AC2D78E30179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E339B10-C8CD-46B8-98D1-AE580D8541E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MarbleEvent" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="54">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,6 +193,59 @@
   </si>
   <si>
     <t>총 획득 재화 (평균 기댓값)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윷놀이 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 외형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하루 획득 윷가락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 획득 윷가락(윷,모)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 획득 가능 윷가락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션 획득 가능 윷가락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태극 영약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내면 세계 입장권</t>
+  </si>
+  <si>
+    <t>사신수 기운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은 구미호 구슬 소탕권</t>
+  </si>
+  <si>
+    <t>요석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태극 영약</t>
+  </si>
+  <si>
+    <t>태극 조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사신수 영약</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -262,7 +315,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -283,6 +336,12 @@
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,7 +661,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -729,7 +788,7 @@
         <v>9026</v>
       </c>
       <c r="C11" s="3">
-        <v>2000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -740,7 +799,7 @@
         <v>9032</v>
       </c>
       <c r="C12" s="3">
-        <v>200000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -751,7 +810,7 @@
         <v>9043</v>
       </c>
       <c r="C13" s="3">
-        <v>20000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -759,7 +818,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>46</v>
+        <v>9048</v>
       </c>
       <c r="C14" s="3">
         <v>10000</v>
@@ -770,7 +829,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3">
-        <v>73</v>
+        <v>9049</v>
       </c>
       <c r="C15" s="3">
         <v>10000</v>
@@ -781,7 +840,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="C16" s="3">
         <v>10000</v>
@@ -792,7 +851,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3">
-        <v>9001</v>
+        <v>73</v>
       </c>
       <c r="C17" s="3">
         <v>10000</v>
@@ -803,7 +862,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>9008</v>
+        <v>88</v>
       </c>
       <c r="C18" s="3">
         <v>10000</v>
@@ -814,10 +873,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="3">
-        <v>9010</v>
+        <v>9001</v>
       </c>
       <c r="C19" s="3">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
@@ -829,10 +888,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7832F3C5-D87F-484C-BFE9-E3F918485726}">
-  <dimension ref="B2:L75"/>
+  <dimension ref="B2:L77"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -841,9 +900,11 @@
     <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.25" style="2" customWidth="1"/>
     <col min="9" max="9" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="7"/>
+    <col min="11" max="11" width="23.5" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
@@ -851,19 +912,19 @@
         <v>17</v>
       </c>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
@@ -886,8 +947,8 @@
         <v>28</v>
       </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
@@ -904,8 +965,8 @@
         <v>1</v>
       </c>
       <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
@@ -928,8 +989,8 @@
         <v>10</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
@@ -953,8 +1014,8 @@
         <v>10</v>
       </c>
       <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
@@ -978,8 +1039,8 @@
         <v>5</v>
       </c>
       <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
@@ -1003,8 +1064,8 @@
         <v>20</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
@@ -1021,8 +1082,8 @@
         <v>10</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
@@ -1045,8 +1106,8 @@
         <v>10</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
@@ -1070,8 +1131,8 @@
         <v>5</v>
       </c>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
@@ -1095,8 +1156,8 @@
         <v>10</v>
       </c>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
@@ -1113,8 +1174,8 @@
         <v>10</v>
       </c>
       <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
@@ -1131,8 +1192,8 @@
         <v>2</v>
       </c>
       <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
@@ -1149,20 +1210,20 @@
         <v>10</v>
       </c>
       <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
@@ -1172,8 +1233,8 @@
       <c r="I20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
       <c r="L20" s="3"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
@@ -1191,10 +1252,10 @@
       </c>
       <c r="I21" s="6">
         <f>SUMIF(F:F,F21,H:H)*75/3</f>
-        <v>500000</v>
-      </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+        <v>1000000</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
       <c r="L21" s="3"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
@@ -1212,10 +1273,10 @@
       </c>
       <c r="I22" s="6">
         <f t="shared" ref="I22:I32" si="0">SUMIF(F:F,F22,H:H)*75/3</f>
-        <v>500000</v>
-      </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+        <v>1000000</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
       <c r="L22" s="3"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
@@ -1233,10 +1294,10 @@
       </c>
       <c r="I23" s="6">
         <f t="shared" si="0"/>
-        <v>500000</v>
-      </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
+        <v>1000000</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
       <c r="L23" s="3"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
@@ -1254,10 +1315,10 @@
       </c>
       <c r="I24" s="6">
         <f t="shared" si="0"/>
-        <v>500000</v>
-      </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
+        <v>1000000</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
       <c r="L24" s="3"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
@@ -1276,10 +1337,10 @@
       </c>
       <c r="I25" s="6">
         <f t="shared" si="0"/>
-        <v>500000</v>
-      </c>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
+        <v>750000</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
       <c r="L25" s="3"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
@@ -1297,10 +1358,10 @@
       </c>
       <c r="I26" s="6">
         <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
+        <v>1500000</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
       <c r="L26" s="3"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
@@ -1318,10 +1379,10 @@
       </c>
       <c r="I27" s="6">
         <f t="shared" si="0"/>
-        <v>7500000000</v>
-      </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
+        <v>15000000000</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
       <c r="L27" s="3"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
@@ -1339,7 +1400,7 @@
       </c>
       <c r="I28" s="6">
         <f t="shared" si="0"/>
-        <v>2500000000000</v>
+        <v>5000000000000</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.3">
@@ -1357,7 +1418,7 @@
       </c>
       <c r="I29" s="6">
         <f t="shared" si="0"/>
-        <v>12500</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
@@ -1375,7 +1436,7 @@
       </c>
       <c r="I30" s="6">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
@@ -1393,7 +1454,7 @@
       </c>
       <c r="I31" s="6">
         <f t="shared" si="0"/>
-        <v>5000000</v>
+        <v>12500000</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
@@ -1411,10 +1472,10 @@
       </c>
       <c r="I32" s="6">
         <f t="shared" si="0"/>
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="33" spans="5:9" x14ac:dyDescent="0.3">
+        <v>1250000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E33" s="2">
         <v>12</v>
       </c>
@@ -1429,7 +1490,7 @@
       </c>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E34" s="2">
         <v>13</v>
       </c>
@@ -1444,7 +1505,7 @@
       </c>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E35" s="2">
         <v>14</v>
       </c>
@@ -1459,7 +1520,7 @@
       </c>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E36" s="2">
         <v>15</v>
       </c>
@@ -1474,7 +1535,7 @@
       </c>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E37" s="2">
         <v>16</v>
       </c>
@@ -1489,7 +1550,7 @@
       </c>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E38" s="2">
         <v>17</v>
       </c>
@@ -1504,17 +1565,702 @@
       </c>
       <c r="I38" s="6"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B50" s="1"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="I56" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" s="1"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="I75" s="1"/>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I43" s="3"/>
+      <c r="J43" s="2">
+        <v>9028</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44">
+        <v>41</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" s="3"/>
+      <c r="J44" s="2">
+        <v>9033</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1493</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H45" s="2">
+        <v>1</v>
+      </c>
+      <c r="I45" s="3"/>
+      <c r="J45" s="7">
+        <v>9050</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="E46" s="2">
+        <v>3</v>
+      </c>
+      <c r="F46" s="2">
+        <v>9028</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" s="2">
+        <v>20</v>
+      </c>
+      <c r="I46" s="3"/>
+      <c r="J46" s="7">
+        <v>9044</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47">
+        <f>C44*C46</f>
+        <v>410</v>
+      </c>
+      <c r="E47" s="2">
+        <v>5</v>
+      </c>
+      <c r="F47" s="2">
+        <v>9033</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="2">
+        <v>10</v>
+      </c>
+      <c r="I47" s="3"/>
+      <c r="J47" s="7">
+        <v>9053</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48">
+        <f>C47/10</f>
+        <v>41</v>
+      </c>
+      <c r="E48" s="2">
+        <v>10</v>
+      </c>
+      <c r="F48" s="2">
+        <v>9017</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="2">
+        <v>10</v>
+      </c>
+      <c r="I48" s="3"/>
+      <c r="J48" s="7">
+        <v>9063</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49">
+        <f>C47+C48</f>
+        <v>451</v>
+      </c>
+      <c r="E49" s="2">
+        <v>15</v>
+      </c>
+      <c r="F49" s="2">
+        <v>9027</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" s="2">
+        <v>10</v>
+      </c>
+      <c r="I49" s="3"/>
+      <c r="J49" s="2">
+        <v>9041</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E50" s="2">
+        <v>20</v>
+      </c>
+      <c r="F50" s="2">
+        <v>9039</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="2">
+        <v>5</v>
+      </c>
+      <c r="I50" s="3"/>
+      <c r="J50" s="7">
+        <v>9048</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51">
+        <f>C49*5</f>
+        <v>2255</v>
+      </c>
+      <c r="E51" s="2">
+        <v>25</v>
+      </c>
+      <c r="F51" s="2">
+        <v>9044</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H51" s="2">
+        <v>10</v>
+      </c>
+      <c r="I51" s="3"/>
+      <c r="J51" s="7">
+        <v>9050</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52">
+        <f>C49*2.5</f>
+        <v>1127.5</v>
+      </c>
+      <c r="E52" s="2">
+        <v>30</v>
+      </c>
+      <c r="F52" s="7">
+        <v>9050</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" s="2">
+        <v>10</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="7">
+        <v>9049</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E53" s="2">
+        <v>35</v>
+      </c>
+      <c r="F53" s="7">
+        <v>9062</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H53" s="2">
+        <v>5</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="2">
+        <v>9044</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54">
+        <v>18</v>
+      </c>
+      <c r="E54" s="2">
+        <v>40</v>
+      </c>
+      <c r="F54" s="2">
+        <v>9041</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H54" s="2">
+        <v>5</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" s="2">
+        <v>9023</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55">
+        <f>C51/C54</f>
+        <v>125.27777777777777</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45</v>
+      </c>
+      <c r="F55" s="7">
+        <v>9053</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H55" s="2">
+        <v>5</v>
+      </c>
+      <c r="I55" s="3"/>
+      <c r="J55" s="2">
+        <v>9017</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56">
+        <f>C52/C54</f>
+        <v>62.638888888888886</v>
+      </c>
+      <c r="E56" s="2">
+        <v>50</v>
+      </c>
+      <c r="F56" s="2">
+        <v>9039</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" s="2">
+        <v>10</v>
+      </c>
+      <c r="I56" s="3"/>
+      <c r="J56" s="2">
+        <v>9027</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I58" s="3"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E59" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E60" s="2">
+        <v>0</v>
+      </c>
+      <c r="F60" s="2">
+        <v>46</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H60" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I60" s="6">
+        <f>SUMIF(F:F,F60,H:H)*75/3</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E61" s="2">
+        <v>1</v>
+      </c>
+      <c r="F61" s="2">
+        <v>73</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H61" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I61" s="6">
+        <f t="shared" ref="I61:I72" si="1">SUMIF(F:F,F61,H:H)*75/3</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E62" s="2">
+        <v>2</v>
+      </c>
+      <c r="F62" s="2">
+        <v>88</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H62" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I62" s="6">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="J62" s="7">
+        <v>9048</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E63" s="2">
+        <v>3</v>
+      </c>
+      <c r="F63" s="2">
+        <v>9001</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H63" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I63" s="6">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="J63" s="7">
+        <v>9049</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B64" s="1"/>
+      <c r="E64" s="2">
+        <v>4</v>
+      </c>
+      <c r="F64" s="2">
+        <v>9008</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I64" s="6">
+        <f t="shared" si="1"/>
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="65" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E65" s="2">
+        <v>5</v>
+      </c>
+      <c r="F65" s="2">
+        <v>9010</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H65" s="2">
+        <v>20000</v>
+      </c>
+      <c r="I65" s="6">
+        <f t="shared" si="1"/>
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="66" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E66" s="2">
+        <v>6</v>
+      </c>
+      <c r="F66" s="2">
+        <v>5</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H66" s="2">
+        <v>300000000</v>
+      </c>
+      <c r="I66" s="6">
+        <f t="shared" si="1"/>
+        <v>15000000000</v>
+      </c>
+    </row>
+    <row r="67" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E67" s="2">
+        <v>7</v>
+      </c>
+      <c r="F67" s="2">
+        <v>2</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H67" s="2">
+        <v>100000000000</v>
+      </c>
+      <c r="I67" s="6">
+        <f t="shared" si="1"/>
+        <v>5000000000000</v>
+      </c>
+    </row>
+    <row r="68" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E68" s="2">
+        <v>8</v>
+      </c>
+      <c r="F68" s="2">
+        <v>9016</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H68" s="2">
+        <v>500</v>
+      </c>
+      <c r="I68" s="6">
+        <f t="shared" si="1"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="69" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E69" s="2">
+        <v>9</v>
+      </c>
+      <c r="F69" s="2">
+        <v>9026</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I69" s="6">
+        <f t="shared" si="1"/>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="70" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E70" s="2">
+        <v>10</v>
+      </c>
+      <c r="F70" s="2">
+        <v>9032</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H70" s="2">
+        <v>300000</v>
+      </c>
+      <c r="I70" s="6">
+        <f t="shared" si="1"/>
+        <v>12500000</v>
+      </c>
+    </row>
+    <row r="71" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E71" s="2">
+        <v>11</v>
+      </c>
+      <c r="F71" s="2">
+        <v>9043</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H71" s="2">
+        <v>30000</v>
+      </c>
+      <c r="I71" s="6">
+        <f>SUMIF(F:F,F71,H:H)*75/3</f>
+        <v>1250000</v>
+      </c>
+    </row>
+    <row r="72" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E72" s="2">
+        <v>12</v>
+      </c>
+      <c r="F72" s="7">
+        <v>9048</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H72" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I72" s="6">
+        <f t="shared" si="1"/>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="73" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E73" s="2">
+        <v>13</v>
+      </c>
+      <c r="F73" s="7">
+        <v>9049</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H73" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I73" s="6">
+        <f>SUMIF(F:F,F73,H:H)*75/3</f>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="74" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E74" s="2">
+        <v>14</v>
+      </c>
+      <c r="F74" s="2">
+        <v>46</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H74" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I74" s="6"/>
+    </row>
+    <row r="75" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E75" s="2">
+        <v>15</v>
+      </c>
+      <c r="F75" s="2">
+        <v>73</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H75" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I75" s="6"/>
+    </row>
+    <row r="76" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E76" s="2">
+        <v>16</v>
+      </c>
+      <c r="F76" s="2">
+        <v>88</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H76" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I76" s="6"/>
+    </row>
+    <row r="77" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E77" s="2">
+        <v>17</v>
+      </c>
+      <c r="F77" s="2">
+        <v>9001</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H77" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I77" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/06.Table/MarbleEvent.xlsx
+++ b/Assets/06.Table/MarbleEvent.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E339B10-C8CD-46B8-98D1-AE580D8541E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D661CB-811E-4E79-906A-5B05B0451461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="67">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -246,6 +246,49 @@
   </si>
   <si>
     <t>사신수 영약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수호환</t>
+  </si>
+  <si>
+    <t>여우불씨</t>
+  </si>
+  <si>
+    <t>도술꽃</t>
+  </si>
+  <si>
+    <t>심득조각</t>
+  </si>
+  <si>
+    <t>심득조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요석</t>
+  </si>
+  <si>
+    <t>태극 조각</t>
+  </si>
+  <si>
+    <t>사신수 기운</t>
+  </si>
+  <si>
+    <t>제자 수련서</t>
+  </si>
+  <si>
+    <t>제자 수련서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈의 기운</t>
+  </si>
+  <si>
+    <t>혈의 기운</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -361,9 +404,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -401,7 +444,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -507,7 +550,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -649,7 +692,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -657,20 +700,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -680,203 +724,260 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>46</v>
+        <v>9016</v>
       </c>
       <c r="C2" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>30000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>73</v>
+        <v>9026</v>
       </c>
       <c r="C3" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>80000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3">
-        <v>88</v>
+        <v>9032</v>
       </c>
       <c r="C4" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>30000000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3">
-        <v>9001</v>
+        <v>9043</v>
       </c>
       <c r="C5" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3000000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3">
-        <v>9008</v>
+        <v>9048</v>
       </c>
       <c r="C6" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3">
-        <v>9010</v>
+        <v>9049</v>
       </c>
       <c r="C7" s="3">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3">
-        <v>5</v>
+        <v>9062</v>
       </c>
       <c r="C8" s="3">
-        <v>300000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50000</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3">
-        <v>2</v>
+        <v>9064</v>
       </c>
       <c r="C9" s="3">
-        <v>100000000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3">
+        <v>9065</v>
+      </c>
+      <c r="C10" s="3">
+        <v>5000</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3">
         <v>9016</v>
       </c>
-      <c r="C10" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3">
+      <c r="C11" s="3">
+        <v>30000</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3">
         <v>9026</v>
       </c>
-      <c r="C11" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="C12" s="3">
+        <v>80000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
         <v>9032</v>
       </c>
-      <c r="C12" s="3">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3">
+      <c r="C13" s="3">
+        <v>30000000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
         <v>9043</v>
       </c>
-      <c r="C13" s="3">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3">
+      <c r="C14" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
         <v>9048</v>
       </c>
-      <c r="C14" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3">
+      <c r="C15" s="3">
+        <v>50000</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3">
         <v>9049</v>
       </c>
-      <c r="C15" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3">
-        <v>46</v>
-      </c>
       <c r="C16" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B17" s="3">
-        <v>73</v>
+        <v>9062</v>
       </c>
       <c r="C17" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50000</v>
+      </c>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3">
-        <v>88</v>
-      </c>
-      <c r="C18" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>9064</v>
+      </c>
+      <c r="C18">
+        <v>5000</v>
+      </c>
+      <c r="D18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3">
-        <v>9001</v>
-      </c>
-      <c r="C19" s="3">
-        <v>10000</v>
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>9065</v>
+      </c>
+      <c r="C19">
+        <v>5000</v>
+      </c>
+      <c r="D19" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
